--- a/charts/o9_lim - Uso de la tecnologia e innovación.xlsx
+++ b/charts/o9_lim - Uso de la tecnologia e innovación.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Country Name</t>
   </si>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -75,21 +78,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF152747"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,16 +114,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,11 +146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +237,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -325,7 +358,7 @@
               <a:solidFill>
                 <a:srgbClr val="C80000"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -344,7 +377,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -469,7 +502,7 @@
               <a:solidFill>
                 <a:srgbClr val="008E2C"/>
               </a:solidFill>
-              <a:prstDash val="dot"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -488,7 +521,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -625,7 +658,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -737,6 +770,149 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Ecuador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
+            <c:dLblPos val="b"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fig1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fig1!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.60028982162476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.74424982070923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.65310001373291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.92997980117798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.21020984649658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.10570001602173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.36274814605713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6142578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.62145519256592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2457799911499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.26103019714355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.64776992797852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.59897994995117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.89365005493164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fig1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Argentina</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -765,150 +941,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Fig1!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fig1!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4.60028982162476</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.74424982070923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.65310001373291</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.92997980117798</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.21020984649658</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.10570001602173</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.36274814605713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6142578125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.62145519256592</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2457799911499</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.26103019714355</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.64776992797852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.59897994995117</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.89365005493164</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fig1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Argentina</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:srgbClr val="152747"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="152747"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="152747"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="b"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -1139,18 +1172,18 @@
         </c:manualLayout>
       </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$B$1</c:f>
+              <c:f>'Fig2'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suiza</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,366 +1198,72 @@
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+            <c:strRef>
+              <c:f>'Fig2'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Suiza</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Brasil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bolivia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ecuador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$B$2</c:f>
+              <c:f>'Fig2'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>67.47308168602341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.7401426134232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.6249418382194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.1821414523479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.6990180179644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.4246461433415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.2463408727639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3268161742894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Brasil</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C80000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32.7401426134232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008E2C"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32.6249418382194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Colombia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DD6909"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.1821414523479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Peru</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B8B8B8"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26.6990180179644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Argentina</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="152747"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26.4246461433415</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bolivia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C80000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20.2463408727639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig2'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ecuador</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008E2C"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="# ##0.00" sourceLinked="0"/>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig2'!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig2'!$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19.3268161742894</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
+        <c:gapWidth val="50"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
       </c:barChart>
@@ -1533,11 +1272,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1566,7 +1305,7 @@
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
@@ -1601,10 +1340,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
@@ -1753,6 +1488,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:gapWidth val="100"/>
         <c:axId val="50030001"/>
         <c:axId val="50030002"/>
       </c:barChart>
@@ -2240,9 +1976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -2268,309 +2008,309 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>4.094322443008425</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2.86730003356934</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5.64879989624023</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>6.97379016876221</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>4.60028982162476</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>5.01971006393433</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>4.132525205612184</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2.6635000705719</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>5.73741006851196</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>6.45056009292603</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>4.74424982070923</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>5.29062986373901</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>4.22964286804199</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.92276000976562</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5.85510015487671</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>6.62799978256226</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4.65310001373291</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>5.34582996368408</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>4.347214937210085</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3.29729008674622</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>5.8388500213623</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>6.80321979522705</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>4.92997980117798</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>5.43661022186279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>4.26735019683838</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3.69599008560181</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5.94848012924194</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>7.47812986373901</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>5.21020984649658</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>5.36144018173218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4.23460125923157</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>3.96933007240295</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>6.24105978012085</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>8.143429756164551</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>5.10570001602173</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>5.77611017227173</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>2016</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>4.17230987548828</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3.81316995620728</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>6.314040184021</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>8.15060997009277</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>4.36274814605713</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>5.54548978805542</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>4.18488502502441</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3.93130993843079</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>6.32047986984253</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>8.09724044799805</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>4.6142578125</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>5.45431995391846</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>4.09162998199463</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3.71392011642456</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>6.08851003646851</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>8.01587009429932</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>4.62145519256592</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>4.87773990631104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>4.13747954368591</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>3.822429895401</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>5.96346998214722</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>8.09103965759277</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>4.2457799911499</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>4.7716498374939</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>4.44135999679565</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>4.25937986373901</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>5.77150011062622</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>8.43710994720459</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>4.26103019714355</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>5.27689981460571</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>4.24035573005676</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>3.92721009254456</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>5.4969801902771</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>7.96215009689331</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>3.64776992797852</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>4.64117002487183</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>2022</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>3.774871587753295</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3.83315992355347</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>7.57550001144409</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>3.59897994995117</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>4.80521011352539</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>4.23516988754272</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3.89365005493164</v>
       </c>
     </row>
@@ -2584,9 +2324,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -2618,31 +2362,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2024</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>67.47308168602341</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>32.7401426134232</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>32.6249418382194</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>29.1821414523479</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>26.6990180179644</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>26.4246461433415</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>20.2463408727639</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>19.3268161742894</v>
       </c>
     </row>
@@ -2656,9 +2400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2669,74 +2417,74 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2016</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>8779652228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2017</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>7997497793</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2018</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>9724970995</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2019</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>10560606257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2020</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>11313414857</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>2021</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>10808448584</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>12191422328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2023</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>12483313090</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2024</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>11060053019</v>
       </c>
     </row>
